--- a/Design/特效规范/技能特效.xlsx
+++ b/Design/特效规范/技能特效.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -1694,7 +1694,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="59.25" customHeight="1" x14ac:dyDescent="0.3"/>
